--- a/Документы/Общая спецификация.xlsx
+++ b/Документы/Общая спецификация.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="719" uniqueCount="318">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="720" uniqueCount="320">
   <si>
     <t>Список компонентов для лабораторной установки</t>
   </si>
@@ -962,9 +962,6 @@
     <t>Фоторезист</t>
   </si>
   <si>
-    <t>FR4 100х150мм 18/18 (1.5мм, 18мкм), Cтеклотекстолит 2-сторонний, фольгированный</t>
-  </si>
-  <si>
     <t>Ordyl ALPHA 350 305(300)x1000мм, Сухой пленочный фоторезист</t>
   </si>
   <si>
@@ -996,6 +993,15 @@
   </si>
   <si>
     <t>Блок питания 5В</t>
+  </si>
+  <si>
+    <t>FR4 150х250мм 18/18 (1.5мм, 18мкм), Cтеклотекстолит 2-сторонний, фольгированный</t>
+  </si>
+  <si>
+    <t>R36-R59</t>
+  </si>
+  <si>
+    <t>30 шт</t>
   </si>
 </sst>
 </file>
@@ -1781,8 +1787,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="D52" sqref="D52"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1791,7 +1797,7 @@
     <col min="2" max="2" width="10.375" style="1" customWidth="1"/>
     <col min="3" max="3" width="13.75" style="1" customWidth="1"/>
     <col min="4" max="4" width="15.5" style="1" customWidth="1"/>
-    <col min="5" max="5" width="68.375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="70.5" style="1" customWidth="1"/>
     <col min="6" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
@@ -2043,9 +2049,11 @@
         <v>2512</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>232</v>
-      </c>
-      <c r="E16" s="20"/>
+        <v>319</v>
+      </c>
+      <c r="E16" s="20" t="s">
+        <v>318</v>
+      </c>
     </row>
     <row r="17" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="72"/>
@@ -2481,7 +2489,7 @@
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" s="32" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B51" s="3"/>
       <c r="C51" s="3"/>
@@ -2503,7 +2511,7 @@
     </row>
     <row r="54" spans="1:5" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="65" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B54" s="65"/>
       <c r="C54" s="65"/>
@@ -2512,31 +2520,31 @@
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C55" s="31" t="s">
         <v>268</v>
       </c>
       <c r="D55" s="34">
         <f>'Чип и Дип'!H34</f>
-        <v>7152</v>
+        <v>7482</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C56" s="31" t="s">
         <v>268</v>
       </c>
       <c r="D56" s="34">
         <f>Терраэлектроника!H30</f>
-        <v>5260.8600000000006</v>
+        <v>5292.8600000000006</v>
       </c>
     </row>
     <row r="57" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="66" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B57" s="66"/>
       <c r="C57" s="66"/>
@@ -2545,7 +2553,7 @@
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" s="67" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B58" s="67"/>
       <c r="C58" s="31" t="s">
@@ -2553,12 +2561,12 @@
       </c>
       <c r="D58" s="34">
         <f>'Комбинация ЧИД и Терра'!H41</f>
-        <v>5446.6</v>
+        <v>5778.6</v>
       </c>
     </row>
     <row r="60" spans="1:5" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="68" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B60" s="69"/>
       <c r="C60" s="69"/>
@@ -2566,7 +2574,7 @@
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C61" s="31" t="s">
         <v>268</v>
@@ -2578,7 +2586,7 @@
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C62" s="31" t="s">
         <v>268</v>
@@ -2644,8 +2652,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H42"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L15" sqref="L15"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="Q25" sqref="Q25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2899,7 +2907,7 @@
         <v>1</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="F13" s="54">
         <v>9000157596</v>
@@ -2922,17 +2930,17 @@
         <v>2</v>
       </c>
       <c r="E14" s="21" t="s">
-        <v>307</v>
+        <v>317</v>
       </c>
       <c r="F14" s="52">
-        <v>9000025813</v>
+        <v>9000056110</v>
       </c>
       <c r="G14" s="37">
-        <v>160</v>
+        <v>310</v>
       </c>
       <c r="H14" s="38">
         <f t="shared" si="0"/>
-        <v>320</v>
+        <v>620</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="23.25" x14ac:dyDescent="0.35">
@@ -3294,7 +3302,7 @@
         <v>2512</v>
       </c>
       <c r="D32" s="3">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="E32" s="3" t="s">
         <v>284</v>
@@ -3307,7 +3315,7 @@
       </c>
       <c r="H32" s="40">
         <f t="shared" si="1"/>
-        <v>64</v>
+        <v>96</v>
       </c>
     </row>
     <row r="33" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3450,7 +3458,7 @@
       </c>
       <c r="H41" s="31">
         <f>SUM(H4:H14,H20:H39)</f>
-        <v>5446.6</v>
+        <v>5778.6</v>
       </c>
     </row>
     <row r="42" spans="1:8" ht="23.25" x14ac:dyDescent="0.35">
@@ -3480,7 +3488,7 @@
   <dimension ref="A1:H35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:H2"/>
+      <selection activeCell="L19" sqref="L19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3847,7 +3855,7 @@
         <v>2512</v>
       </c>
       <c r="D15" s="3">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="E15" s="3" t="s">
         <v>259</v>
@@ -3860,7 +3868,7 @@
       </c>
       <c r="H15" s="40">
         <f t="shared" si="0"/>
-        <v>60</v>
+        <v>90</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4164,7 +4172,7 @@
         <v>1</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="F31" s="54">
         <v>9000157596</v>
@@ -4187,17 +4195,17 @@
         <v>2</v>
       </c>
       <c r="E32" s="21" t="s">
-        <v>307</v>
+        <v>317</v>
       </c>
       <c r="F32" s="52">
-        <v>9000025813</v>
+        <v>9000056110</v>
       </c>
       <c r="G32" s="37">
-        <v>160</v>
+        <v>310</v>
       </c>
       <c r="H32" s="38">
         <f t="shared" si="0"/>
-        <v>320</v>
+        <v>620</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
@@ -4206,7 +4214,7 @@
       </c>
       <c r="H34" s="31">
         <f>SUM(H3:H32)</f>
-        <v>7152</v>
+        <v>7482</v>
       </c>
     </row>
     <row r="35" spans="1:8" ht="23.25" x14ac:dyDescent="0.35">
@@ -4224,7 +4232,7 @@
     <mergeCell ref="A1:H1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -4233,7 +4241,7 @@
   <dimension ref="A1:I31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K28" sqref="K28"/>
+      <selection activeCell="L18" sqref="L18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4600,7 +4608,7 @@
         <v>2512</v>
       </c>
       <c r="D15" s="3">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="E15" s="3" t="s">
         <v>284</v>
@@ -4613,7 +4621,7 @@
       </c>
       <c r="H15" s="40">
         <f t="shared" si="0"/>
-        <v>64</v>
+        <v>96</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4890,7 +4898,7 @@
       </c>
       <c r="H30" s="31">
         <f>SUM(H3:H28)</f>
-        <v>5260.8600000000006</v>
+        <v>5292.8600000000006</v>
       </c>
     </row>
     <row r="31" spans="1:8" ht="23.25" x14ac:dyDescent="0.35">

--- a/Документы/Общая спецификация.xlsx
+++ b/Документы/Общая спецификация.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\LUB\Документы\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Список" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="720" uniqueCount="320">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="724" uniqueCount="322">
   <si>
     <t>Список компонентов для лабораторной установки</t>
   </si>
@@ -998,10 +998,16 @@
     <t>FR4 150х250мм 18/18 (1.5мм, 18мкм), Cтеклотекстолит 2-сторонний, фольгированный</t>
   </si>
   <si>
-    <t>R36-R59</t>
-  </si>
-  <si>
     <t>30 шт</t>
+  </si>
+  <si>
+    <t>R36-R60</t>
+  </si>
+  <si>
+    <t>Кварц</t>
+  </si>
+  <si>
+    <t>12.000 МГц имп. HC-49SM, кварцевый резонатор</t>
   </si>
 </sst>
 </file>
@@ -1787,8 +1793,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J73"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H24" sqref="H24"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2049,10 +2055,10 @@
         <v>2512</v>
       </c>
       <c r="D16" s="3" t="s">
+        <v>318</v>
+      </c>
+      <c r="E16" s="20" t="s">
         <v>319</v>
-      </c>
-      <c r="E16" s="20" t="s">
-        <v>318</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2527,7 +2533,7 @@
       </c>
       <c r="D55" s="34">
         <f>'Чип и Дип'!H34</f>
-        <v>7482</v>
+        <v>7510</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
@@ -2561,7 +2567,7 @@
       </c>
       <c r="D58" s="34">
         <f>'Комбинация ЧИД и Терра'!H41</f>
-        <v>5778.6</v>
+        <v>5806.6</v>
       </c>
     </row>
     <row r="60" spans="1:5" ht="33" customHeight="1" x14ac:dyDescent="0.25">
@@ -2652,8 +2658,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H42"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="Q25" sqref="Q25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2819,14 +2825,25 @@
       </c>
     </row>
     <row r="9" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="27"/>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="39"/>
-      <c r="H9" s="40"/>
+      <c r="A9" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="D9" s="1">
+        <v>2</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="F9" s="1">
+        <v>11305</v>
+      </c>
+      <c r="G9" s="31">
+        <v>14</v>
+      </c>
+      <c r="H9" s="38">
+        <f>G9*D9</f>
+        <v>28</v>
+      </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="26" t="s">
@@ -3458,7 +3475,7 @@
       </c>
       <c r="H41" s="31">
         <f>SUM(H4:H14,H20:H39)</f>
-        <v>5778.6</v>
+        <v>5806.6</v>
       </c>
     </row>
     <row r="42" spans="1:8" ht="23.25" x14ac:dyDescent="0.35">
@@ -3487,8 +3504,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L19" sqref="L19"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A27" sqref="A27:H27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4092,7 +4109,27 @@
         <v>1950</v>
       </c>
     </row>
-    <row r="27" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="27" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="D27" s="1">
+        <v>2</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="F27" s="1">
+        <v>11305</v>
+      </c>
+      <c r="G27" s="31">
+        <v>14</v>
+      </c>
+      <c r="H27" s="38">
+        <f>G27*D27</f>
+        <v>28</v>
+      </c>
+    </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="26" t="s">
         <v>233</v>
@@ -4214,7 +4251,7 @@
       </c>
       <c r="H34" s="31">
         <f>SUM(H3:H32)</f>
-        <v>7482</v>
+        <v>7510</v>
       </c>
     </row>
     <row r="35" spans="1:8" ht="23.25" x14ac:dyDescent="0.35">
